--- a/Code/Results/Cases/Case_4_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_194/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.16728213054991</v>
+        <v>16.13401358090623</v>
       </c>
       <c r="C2">
-        <v>7.1264608923897</v>
+        <v>8.414878523901196</v>
       </c>
       <c r="D2">
-        <v>9.465785445340373</v>
+        <v>14.12772636425169</v>
       </c>
       <c r="E2">
-        <v>9.028612791107077</v>
+        <v>14.7818993200728</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.160194588242717</v>
+        <v>3.753245410544127</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.395700119034418</v>
+        <v>8.891775086349083</v>
       </c>
       <c r="K2">
-        <v>9.860247790414832</v>
+        <v>11.90576790606516</v>
       </c>
       <c r="L2">
-        <v>7.08538118719025</v>
+        <v>12.07889940573057</v>
       </c>
       <c r="M2">
-        <v>10.56798638670286</v>
+        <v>17.255753184908</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.71990857209126</v>
+        <v>37.39694571420988</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.45828385422973</v>
+        <v>16.0286072968903</v>
       </c>
       <c r="C3">
-        <v>7.091708631645982</v>
+        <v>8.398002069580572</v>
       </c>
       <c r="D3">
-        <v>9.2948558732399</v>
+        <v>14.13063530701761</v>
       </c>
       <c r="E3">
-        <v>9.032107548540214</v>
+        <v>14.80692786471205</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.16626212720404</v>
+        <v>3.75550785560903</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.414672372174422</v>
+        <v>8.897902160824801</v>
       </c>
       <c r="K3">
-        <v>9.238978220155023</v>
+        <v>11.83300948990802</v>
       </c>
       <c r="L3">
-        <v>7.032721883686414</v>
+        <v>12.09362440160219</v>
       </c>
       <c r="M3">
-        <v>10.32950991599708</v>
+        <v>17.25690668050398</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.6613221593833</v>
+        <v>37.45854251106244</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.00810734869886</v>
+        <v>15.9670267448289</v>
       </c>
       <c r="C4">
-        <v>7.070224204884417</v>
+        <v>8.387363050817365</v>
       </c>
       <c r="D4">
-        <v>9.193379570748858</v>
+        <v>14.13470455860315</v>
       </c>
       <c r="E4">
-        <v>9.037561444059481</v>
+        <v>14.82383111315714</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.170103260900938</v>
+        <v>3.756971235900345</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.426677407681392</v>
+        <v>8.901860621950334</v>
       </c>
       <c r="K4">
-        <v>8.836541263573851</v>
+        <v>11.79055964748418</v>
       </c>
       <c r="L4">
-        <v>7.002988938639885</v>
+        <v>12.10405115917802</v>
       </c>
       <c r="M4">
-        <v>10.18509940468116</v>
+        <v>17.2601062015397</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.63941609310018</v>
+        <v>37.50188726565717</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.82113128628067</v>
+        <v>15.94274498683052</v>
       </c>
       <c r="C5">
-        <v>7.061430342339727</v>
+        <v>8.382958288517738</v>
       </c>
       <c r="D5">
-        <v>9.15293128481942</v>
+        <v>14.13693788286986</v>
       </c>
       <c r="E5">
-        <v>9.040600143671092</v>
+        <v>14.83110593873669</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.171698367981207</v>
+        <v>3.757586300939442</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.431660850330053</v>
+        <v>8.903523263618293</v>
       </c>
       <c r="K5">
-        <v>8.667264427431007</v>
+        <v>11.77383600641707</v>
       </c>
       <c r="L5">
-        <v>6.991523734454738</v>
+        <v>12.10864906936552</v>
       </c>
       <c r="M5">
-        <v>10.12682504685477</v>
+        <v>17.26203831339098</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.63392119184322</v>
+        <v>37.52093885029926</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.78987802090677</v>
+        <v>15.9387627700612</v>
       </c>
       <c r="C6">
-        <v>7.05996773289267</v>
+        <v>8.382222706674222</v>
       </c>
       <c r="D6">
-        <v>9.146270335226738</v>
+        <v>14.13734348154512</v>
       </c>
       <c r="E6">
-        <v>9.04115355813261</v>
+        <v>14.83233728213512</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.17196505586384</v>
+        <v>3.757689564770538</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.432493911723133</v>
+        <v>8.903802340218586</v>
       </c>
       <c r="K6">
-        <v>8.638837183377735</v>
+        <v>11.77109423103431</v>
       </c>
       <c r="L6">
-        <v>6.989659185992676</v>
+        <v>12.10943363730904</v>
       </c>
       <c r="M6">
-        <v>10.1171852937518</v>
+        <v>17.26239713537302</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.63321297130287</v>
+        <v>37.5241861706514</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.00559969324927</v>
+        <v>15.96669595152762</v>
       </c>
       <c r="C7">
-        <v>7.070105767238843</v>
+        <v>8.387303926709471</v>
       </c>
       <c r="D7">
-        <v>9.192830371475621</v>
+        <v>14.13473234843558</v>
       </c>
       <c r="E7">
-        <v>9.037599140866327</v>
+        <v>14.8239276579935</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.17012465140797</v>
+        <v>3.756979454983637</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.426744244186417</v>
+        <v>8.901882844149894</v>
       </c>
       <c r="K7">
-        <v>8.834279720104156</v>
+        <v>11.79033175824974</v>
       </c>
       <c r="L7">
-        <v>7.002831682159603</v>
+        <v>12.10411175477329</v>
       </c>
       <c r="M7">
-        <v>10.18431108209632</v>
+        <v>17.26012971251829</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.63932823000867</v>
+        <v>37.50213858228934</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.92601401404755</v>
+        <v>16.09703235453037</v>
       </c>
       <c r="C8">
-        <v>7.114507421127189</v>
+        <v>8.409117168281698</v>
       </c>
       <c r="D8">
-        <v>9.406146270991114</v>
+        <v>14.12825612865699</v>
       </c>
       <c r="E8">
-        <v>9.029121719926469</v>
+        <v>14.79021072950579</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.162263128229812</v>
+        <v>3.754010131351879</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.402168957221907</v>
+        <v>8.893847024923508</v>
       </c>
       <c r="K8">
-        <v>9.650381240304128</v>
+        <v>11.88022888931763</v>
       </c>
       <c r="L8">
-        <v>7.066683266819715</v>
+        <v>12.08368932951495</v>
       </c>
       <c r="M8">
-        <v>10.48538155041798</v>
+        <v>17.25563499991999</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.69672543768385</v>
+        <v>37.4170373144386</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.60593124294471</v>
+        <v>16.37644412242465</v>
       </c>
       <c r="C9">
-        <v>7.200524395071717</v>
+        <v>8.449683312053882</v>
       </c>
       <c r="D9">
-        <v>9.850655342911963</v>
+        <v>14.13362340805741</v>
       </c>
       <c r="E9">
-        <v>9.039458159622784</v>
+        <v>14.73625558543832</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.147729104683998</v>
+        <v>3.748773542319833</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.356717145951059</v>
+        <v>8.879640514691838</v>
       </c>
       <c r="K9">
-        <v>11.08500061040377</v>
+        <v>12.0734340242826</v>
       </c>
       <c r="L9">
-        <v>7.212615923601581</v>
+        <v>12.05461168101697</v>
       </c>
       <c r="M9">
-        <v>11.08889929351331</v>
+        <v>17.26650126389777</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.9255813945014</v>
+        <v>37.29401833796707</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.75671315555341</v>
+        <v>16.59472041806252</v>
       </c>
       <c r="C10">
-        <v>7.263256539920077</v>
+        <v>8.478124399778951</v>
       </c>
       <c r="D10">
-        <v>10.19137007921159</v>
+        <v>14.14850573925874</v>
       </c>
       <c r="E10">
-        <v>9.064486316962856</v>
+        <v>14.70400179758109</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.137536889316082</v>
+        <v>3.745279785430898</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.324870332766817</v>
+        <v>8.87013948019986</v>
       </c>
       <c r="K10">
-        <v>12.03936427727441</v>
+        <v>12.2246667960539</v>
       </c>
       <c r="L10">
-        <v>7.33256173653964</v>
+        <v>12.03990460480387</v>
       </c>
       <c r="M10">
-        <v>11.53668034347954</v>
+        <v>17.28635667980888</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.17104810997543</v>
+        <v>37.23041709586622</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.26116370455603</v>
+        <v>16.6964967128055</v>
       </c>
       <c r="C11">
-        <v>7.291741547298149</v>
+        <v>8.490763792478621</v>
       </c>
       <c r="D11">
-        <v>10.34906737457571</v>
+        <v>14.1576311041609</v>
       </c>
       <c r="E11">
-        <v>9.079878625362184</v>
+        <v>14.69092654679158</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.132993387669487</v>
+        <v>3.743766344567387</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.310689370843277</v>
+        <v>8.866018547386094</v>
       </c>
       <c r="K11">
-        <v>12.45229878302559</v>
+        <v>12.29525094950548</v>
       </c>
       <c r="L11">
-        <v>7.389906428425112</v>
+        <v>12.03465193791764</v>
       </c>
       <c r="M11">
-        <v>11.74065314060971</v>
+        <v>17.29793638005568</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.30088760673477</v>
+        <v>37.20730356586306</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.44939882055153</v>
+        <v>16.73536359814935</v>
       </c>
       <c r="C12">
-        <v>7.302525050340058</v>
+        <v>8.495506741542584</v>
       </c>
       <c r="D12">
-        <v>10.40914329464651</v>
+        <v>14.16142321269421</v>
       </c>
       <c r="E12">
-        <v>9.086302039394157</v>
+        <v>14.68620443303198</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.131285165360608</v>
+        <v>3.743204094540521</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.305360961816342</v>
+        <v>8.864486828885003</v>
       </c>
       <c r="K12">
-        <v>12.60565484022696</v>
+        <v>12.32221618671912</v>
       </c>
       <c r="L12">
-        <v>7.412021886398554</v>
+        <v>12.03286893148851</v>
       </c>
       <c r="M12">
-        <v>11.81788137453075</v>
+        <v>17.3026846078003</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.35278140378476</v>
+        <v>37.19938787448375</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.40898366794455</v>
+        <v>16.72697889051903</v>
       </c>
       <c r="C13">
-        <v>7.300202694559715</v>
+        <v>8.494487195006972</v>
       </c>
       <c r="D13">
-        <v>10.39618932628905</v>
+        <v>14.16059158374442</v>
       </c>
       <c r="E13">
-        <v>9.084891893659201</v>
+        <v>14.68721123862645</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.131652532239696</v>
+        <v>3.743324703142401</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.306506719548644</v>
+        <v>8.864815433574641</v>
       </c>
       <c r="K13">
-        <v>12.57276025578429</v>
+        <v>12.31639854980432</v>
       </c>
       <c r="L13">
-        <v>7.407241116759603</v>
+        <v>12.03324378011297</v>
       </c>
       <c r="M13">
-        <v>11.80125017402046</v>
+        <v>17.30164588756146</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.34148208105739</v>
+        <v>37.20105543891387</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.27670604124311</v>
+        <v>16.6996879488124</v>
       </c>
       <c r="C14">
-        <v>7.292628748715495</v>
+        <v>8.491154867993147</v>
       </c>
       <c r="D14">
-        <v>10.35400281314769</v>
+        <v>14.15793635179841</v>
       </c>
       <c r="E14">
-        <v>9.080395057444864</v>
+        <v>14.69053346488406</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.132852611008549</v>
+        <v>3.743719870639559</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.310250179877367</v>
+        <v>8.865891955764086</v>
       </c>
       <c r="K14">
-        <v>12.46497564328947</v>
+        <v>12.29746477362401</v>
       </c>
       <c r="L14">
-        <v>7.391717855679395</v>
+        <v>12.03450112303371</v>
       </c>
       <c r="M14">
-        <v>11.74700726441348</v>
+        <v>17.29831975791318</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.3051016496696</v>
+        <v>37.20663556439496</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.19531776570595</v>
+        <v>16.68301305737012</v>
       </c>
       <c r="C15">
-        <v>7.287989216952743</v>
+        <v>8.489108069488704</v>
       </c>
       <c r="D15">
-        <v>10.32820832937631</v>
+        <v>14.15635370389302</v>
       </c>
       <c r="E15">
-        <v>9.077718618040413</v>
+        <v>14.69259825880539</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.133589263142586</v>
+        <v>3.743963334435874</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.312548502071956</v>
+        <v>8.866555101959777</v>
       </c>
       <c r="K15">
-        <v>12.39856320054164</v>
+        <v>12.28589748046531</v>
       </c>
       <c r="L15">
-        <v>7.382261550965335</v>
+        <v>12.03529809705299</v>
       </c>
       <c r="M15">
-        <v>11.71377895009595</v>
+        <v>17.29632961832813</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.28317600810926</v>
+        <v>37.21016254203806</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.72335807693929</v>
+        <v>16.58811644068956</v>
       </c>
       <c r="C16">
-        <v>7.261394286708329</v>
+        <v>8.477292344942351</v>
       </c>
       <c r="D16">
-        <v>10.18111602468789</v>
+        <v>14.14795659057586</v>
       </c>
       <c r="E16">
-        <v>9.063562591925024</v>
+        <v>14.70488839508759</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.137835599358733</v>
+        <v>3.745380214653236</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.325803050907295</v>
+        <v>8.870412828753519</v>
       </c>
       <c r="K16">
-        <v>12.01195427417818</v>
+        <v>12.22008818206087</v>
       </c>
       <c r="L16">
-        <v>7.32887011345793</v>
+        <v>12.04027675198042</v>
       </c>
       <c r="M16">
-        <v>11.52335124994545</v>
+        <v>17.2856509219432</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.16293814927114</v>
+        <v>37.23204472888371</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.42890533714335</v>
+        <v>16.53051449463373</v>
       </c>
       <c r="C17">
-        <v>7.245068712984805</v>
+        <v>8.469967033769226</v>
       </c>
       <c r="D17">
-        <v>10.09155048972233</v>
+        <v>14.14340702009668</v>
       </c>
       <c r="E17">
-        <v>9.055917593272559</v>
+        <v>14.7128367368876</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.140463668639451</v>
+        <v>3.746268821737564</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.334011053374079</v>
+        <v>8.872830839294739</v>
       </c>
       <c r="K17">
-        <v>11.76937454015143</v>
+        <v>12.1801596845923</v>
       </c>
       <c r="L17">
-        <v>7.296828669244886</v>
+        <v>12.04369875025317</v>
       </c>
       <c r="M17">
-        <v>11.40656206982608</v>
+        <v>17.27975022031083</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.09391124701336</v>
+        <v>37.24695928901002</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.2577528325709</v>
+        <v>16.49761878679212</v>
       </c>
       <c r="C18">
-        <v>7.235673471455673</v>
+        <v>8.465725625250347</v>
       </c>
       <c r="D18">
-        <v>10.04029093896622</v>
+        <v>14.14101206459753</v>
       </c>
       <c r="E18">
-        <v>9.051896404789552</v>
+        <v>14.71755877403646</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.14198408530727</v>
+        <v>3.746787071115059</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.338761064726975</v>
+        <v>8.874240554742896</v>
       </c>
       <c r="K18">
-        <v>11.627850205937</v>
+        <v>12.15736337988915</v>
       </c>
       <c r="L18">
-        <v>7.278660992496647</v>
+        <v>12.04580235456199</v>
       </c>
       <c r="M18">
-        <v>11.33941662833124</v>
+        <v>17.27659626044198</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.05591277420509</v>
+        <v>37.25608546556867</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.19949779837401</v>
+        <v>16.48652221505734</v>
       </c>
       <c r="C19">
-        <v>7.232491387278301</v>
+        <v>8.464284745352762</v>
       </c>
       <c r="D19">
-        <v>10.02298027783671</v>
+        <v>14.14023933674764</v>
       </c>
       <c r="E19">
-        <v>9.050598924294746</v>
+        <v>14.71918341342428</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.142500418584769</v>
+        <v>3.746963770487</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.340374387123883</v>
+        <v>8.874721117183274</v>
       </c>
       <c r="K19">
-        <v>11.57958813741339</v>
+        <v>12.14967467538232</v>
       </c>
       <c r="L19">
-        <v>7.272554668318254</v>
+        <v>12.04653786702656</v>
       </c>
       <c r="M19">
-        <v>11.31668890859154</v>
+        <v>17.27556968827662</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.04333638233636</v>
+        <v>37.25926949537555</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.46043613524994</v>
+        <v>16.53662217496217</v>
       </c>
       <c r="C20">
-        <v>7.246807107040137</v>
+        <v>8.470749734894541</v>
       </c>
       <c r="D20">
-        <v>10.1010586032099</v>
+        <v>14.1438683852849</v>
       </c>
       <c r="E20">
-        <v>9.056692368154039</v>
+        <v>14.71197506387397</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.140183000768837</v>
+        <v>3.746173488804481</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.333134314804141</v>
+        <v>8.872571478725037</v>
       </c>
       <c r="K20">
-        <v>11.79540419143027</v>
+        <v>12.18439274498462</v>
       </c>
       <c r="L20">
-        <v>7.300212446695797</v>
+        <v>12.04332046801802</v>
       </c>
       <c r="M20">
-        <v>11.41899190750605</v>
+        <v>17.28035354582008</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.10108210978186</v>
+        <v>37.24531492037895</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.31563519142185</v>
+        <v>16.70769534572778</v>
       </c>
       <c r="C21">
-        <v>7.294853448122762</v>
+        <v>8.492134831753113</v>
       </c>
       <c r="D21">
-        <v>10.36638448237093</v>
+        <v>14.1587071427568</v>
       </c>
       <c r="E21">
-        <v>9.08169959783643</v>
+        <v>14.68955142989536</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.132499793772104</v>
+        <v>3.743603506143796</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.309149525562046</v>
+        <v>8.865574974827915</v>
       </c>
       <c r="K21">
-        <v>12.49671606247702</v>
+        <v>12.30301982782271</v>
       </c>
       <c r="L21">
-        <v>7.396266546671762</v>
+        <v>12.03412622392964</v>
       </c>
       <c r="M21">
-        <v>11.76294042325735</v>
+        <v>17.29928688988254</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.31571256634033</v>
+        <v>37.20497383297893</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.85828911672537</v>
+        <v>16.82138974069197</v>
       </c>
       <c r="C22">
-        <v>7.32623859761818</v>
+        <v>8.505858584296444</v>
       </c>
       <c r="D22">
-        <v>10.54187348342163</v>
+        <v>14.17036552914152</v>
       </c>
       <c r="E22">
-        <v>9.101518489028294</v>
+        <v>14.67623201313658</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.127549534375894</v>
+        <v>3.741987132557923</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.29371540087308</v>
+        <v>8.861170100033673</v>
       </c>
       <c r="K22">
-        <v>12.93752023581763</v>
+        <v>12.38191855317514</v>
       </c>
       <c r="L22">
-        <v>7.461376861789423</v>
+        <v>12.02931801782379</v>
       </c>
       <c r="M22">
-        <v>11.98764211619086</v>
+        <v>17.3137766316857</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.47193074684322</v>
+        <v>37.18348661308599</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.57016459235758</v>
+        <v>16.76054628511764</v>
       </c>
       <c r="C23">
-        <v>7.3094876143001</v>
+        <v>8.498557200223354</v>
       </c>
       <c r="D23">
-        <v>10.44803006767155</v>
+        <v>14.1639646233723</v>
       </c>
       <c r="E23">
-        <v>9.090616542509316</v>
+        <v>14.68321877663482</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.130185442947864</v>
+        <v>3.742844051526072</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.301931644559287</v>
+        <v>8.863505759816197</v>
       </c>
       <c r="K23">
-        <v>12.70384677232926</v>
+        <v>12.33969040462531</v>
       </c>
       <c r="L23">
-        <v>7.426412572171602</v>
+        <v>12.03177460893032</v>
       </c>
       <c r="M23">
-        <v>11.86773811699329</v>
+        <v>17.3058506636779</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.38705763937971</v>
+        <v>37.19450841756176</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.44618687484066</v>
+        <v>16.53386020379432</v>
       </c>
       <c r="C24">
-        <v>7.246021208848505</v>
+        <v>8.470395969107432</v>
       </c>
       <c r="D24">
-        <v>10.09675925749021</v>
+        <v>14.14365911461987</v>
       </c>
       <c r="E24">
-        <v>9.056340928825174</v>
+        <v>14.71236415140733</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.140309861028223</v>
+        <v>3.746216565839312</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.333530591192957</v>
+        <v>8.872688674672569</v>
       </c>
       <c r="K24">
-        <v>11.78364261153075</v>
+        <v>12.18247848117698</v>
       </c>
       <c r="L24">
-        <v>7.298681851725488</v>
+        <v>12.04349106495593</v>
       </c>
       <c r="M24">
-        <v>11.41337237948376</v>
+        <v>17.28008003943208</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.09783491969399</v>
+        <v>37.24605662120285</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.16571698896969</v>
+        <v>16.29845963476552</v>
       </c>
       <c r="C25">
-        <v>7.177350462119136</v>
+        <v>8.438947281974063</v>
       </c>
       <c r="D25">
-        <v>9.727790180390691</v>
+        <v>14.1302441161383</v>
       </c>
       <c r="E25">
-        <v>9.033673491459679</v>
+        <v>14.74955254631659</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.151571656727279</v>
+        <v>3.750127813870235</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.368732125519371</v>
+        <v>8.88331861475686</v>
       </c>
       <c r="K25">
-        <v>10.71451969187339</v>
+        <v>12.01945934986055</v>
       </c>
       <c r="L25">
-        <v>7.17090710320797</v>
+        <v>12.0613066077257</v>
       </c>
       <c r="M25">
-        <v>10.92461472151045</v>
+        <v>17.26146686978313</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.8505548954468</v>
+        <v>37.3225973942121</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_194/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_194/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.13401358090623</v>
+        <v>13.16728213054993</v>
       </c>
       <c r="C2">
-        <v>8.414878523901196</v>
+        <v>7.12646089238971</v>
       </c>
       <c r="D2">
-        <v>14.12772636425169</v>
+        <v>9.465785445340384</v>
       </c>
       <c r="E2">
-        <v>14.7818993200728</v>
+        <v>9.028612791107074</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.753245410544127</v>
+        <v>2.160194588242718</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.891775086349083</v>
+        <v>5.395700119034482</v>
       </c>
       <c r="K2">
-        <v>11.90576790606516</v>
+        <v>9.860247790414828</v>
       </c>
       <c r="L2">
-        <v>12.07889940573057</v>
+        <v>7.085381187190251</v>
       </c>
       <c r="M2">
-        <v>17.255753184908</v>
+        <v>10.56798638670291</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>37.39694571420988</v>
+        <v>25.71990857209129</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.0286072968903</v>
+        <v>12.45828385422973</v>
       </c>
       <c r="C3">
-        <v>8.398002069580572</v>
+        <v>7.091708631646116</v>
       </c>
       <c r="D3">
-        <v>14.13063530701761</v>
+        <v>9.294855873239801</v>
       </c>
       <c r="E3">
-        <v>14.80692786471205</v>
+        <v>9.032107548540164</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.75550785560903</v>
+        <v>2.16626212720404</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.897902160824801</v>
+        <v>5.414672372174422</v>
       </c>
       <c r="K3">
-        <v>11.83300948990802</v>
+        <v>9.238978220155083</v>
       </c>
       <c r="L3">
-        <v>12.09362440160219</v>
+        <v>7.032721883686293</v>
       </c>
       <c r="M3">
-        <v>17.25690668050398</v>
+        <v>10.32950991599702</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>37.45854251106244</v>
+        <v>25.66132215938315</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.9670267448289</v>
+        <v>12.00810734869888</v>
       </c>
       <c r="C4">
-        <v>8.387363050817365</v>
+        <v>7.070224204884558</v>
       </c>
       <c r="D4">
-        <v>14.13470455860315</v>
+        <v>9.193379570749027</v>
       </c>
       <c r="E4">
-        <v>14.82383111315714</v>
+        <v>9.037561444059541</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.756971235900345</v>
+        <v>2.170103260901072</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.901860621950334</v>
+        <v>5.426677407681259</v>
       </c>
       <c r="K4">
-        <v>11.79055964748418</v>
+        <v>8.836541263573846</v>
       </c>
       <c r="L4">
-        <v>12.10405115917802</v>
+        <v>7.002988938639889</v>
       </c>
       <c r="M4">
-        <v>17.2601062015397</v>
+        <v>10.18509940468118</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>37.50188726565717</v>
+        <v>25.63941609310017</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.94274498683052</v>
+        <v>11.82113128628067</v>
       </c>
       <c r="C5">
-        <v>8.382958288517738</v>
+        <v>7.061430342339728</v>
       </c>
       <c r="D5">
-        <v>14.13693788286986</v>
+        <v>9.152931284819319</v>
       </c>
       <c r="E5">
-        <v>14.83110593873669</v>
+        <v>9.040600143671154</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.757586300939442</v>
+        <v>2.171698367981341</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.903523263618293</v>
+        <v>5.431660850330086</v>
       </c>
       <c r="K5">
-        <v>11.77383600641707</v>
+        <v>8.667264427431014</v>
       </c>
       <c r="L5">
-        <v>12.10864906936552</v>
+        <v>6.991523734454688</v>
       </c>
       <c r="M5">
-        <v>17.26203831339098</v>
+        <v>10.12682504685478</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>37.52093885029926</v>
+        <v>25.63392119184308</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.9387627700612</v>
+        <v>11.78987802090684</v>
       </c>
       <c r="C6">
-        <v>8.382222706674222</v>
+        <v>7.059967732892932</v>
       </c>
       <c r="D6">
-        <v>14.13734348154512</v>
+        <v>9.146270335226824</v>
       </c>
       <c r="E6">
-        <v>14.83233728213512</v>
+        <v>9.041153558132729</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.757689564770538</v>
+        <v>2.171965055863974</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.903802340218586</v>
+        <v>5.432493911723131</v>
       </c>
       <c r="K6">
-        <v>11.77109423103431</v>
+        <v>8.638837183377753</v>
       </c>
       <c r="L6">
-        <v>12.10943363730904</v>
+        <v>6.989659185992644</v>
       </c>
       <c r="M6">
-        <v>17.26239713537302</v>
+        <v>10.11718529375185</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>37.5241861706514</v>
+        <v>25.63321297130282</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.96669595152762</v>
+        <v>12.00559969324927</v>
       </c>
       <c r="C7">
-        <v>8.387303926709471</v>
+        <v>7.070105767238713</v>
       </c>
       <c r="D7">
-        <v>14.13473234843558</v>
+        <v>9.192830371475722</v>
       </c>
       <c r="E7">
-        <v>14.8239276579935</v>
+        <v>9.03759914086644</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.756979454983637</v>
+        <v>2.170124651408237</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.901882844149894</v>
+        <v>5.426744244186446</v>
       </c>
       <c r="K7">
-        <v>11.79033175824974</v>
+        <v>8.834279720104192</v>
       </c>
       <c r="L7">
-        <v>12.10411175477329</v>
+        <v>7.002831682159736</v>
       </c>
       <c r="M7">
-        <v>17.26012971251829</v>
+        <v>10.18431108209634</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>37.50213858228934</v>
+        <v>25.63932823000861</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.09703235453037</v>
+        <v>12.9260140140475</v>
       </c>
       <c r="C8">
-        <v>8.409117168281698</v>
+        <v>7.114507421127055</v>
       </c>
       <c r="D8">
-        <v>14.12825612865699</v>
+        <v>9.406146270991105</v>
       </c>
       <c r="E8">
-        <v>14.79021072950579</v>
+        <v>9.029121719926239</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.754010131351879</v>
+        <v>2.162263128229679</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.893847024923508</v>
+        <v>5.402168957221807</v>
       </c>
       <c r="K8">
-        <v>11.88022888931763</v>
+        <v>9.65038124030414</v>
       </c>
       <c r="L8">
-        <v>12.08368932951495</v>
+        <v>7.066683266819629</v>
       </c>
       <c r="M8">
-        <v>17.25563499991999</v>
+        <v>10.48538155041788</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>37.4170373144386</v>
+        <v>25.69672543768371</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.37644412242465</v>
+        <v>14.60593124294471</v>
       </c>
       <c r="C9">
-        <v>8.449683312053882</v>
+        <v>7.20052439507185</v>
       </c>
       <c r="D9">
-        <v>14.13362340805741</v>
+        <v>9.850655342911887</v>
       </c>
       <c r="E9">
-        <v>14.73625558543832</v>
+        <v>9.039458159622841</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.748773542319833</v>
+        <v>2.147729104684</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.879640514691838</v>
+        <v>5.356717145951124</v>
       </c>
       <c r="K9">
-        <v>12.0734340242826</v>
+        <v>11.08500061040374</v>
       </c>
       <c r="L9">
-        <v>12.05461168101697</v>
+        <v>7.212615923601573</v>
       </c>
       <c r="M9">
-        <v>17.26650126389777</v>
+        <v>11.08889929351334</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>37.29401833796707</v>
+        <v>25.92558139450144</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.59472041806252</v>
+        <v>15.75671315555338</v>
       </c>
       <c r="C10">
-        <v>8.478124399778951</v>
+        <v>7.263256539920339</v>
       </c>
       <c r="D10">
-        <v>14.14850573925874</v>
+        <v>10.19137007921169</v>
       </c>
       <c r="E10">
-        <v>14.70400179758109</v>
+        <v>9.064486316962965</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.745279785430898</v>
+        <v>2.137536889315815</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.87013948019986</v>
+        <v>5.324870332766817</v>
       </c>
       <c r="K10">
-        <v>12.2246667960539</v>
+        <v>12.03936427727445</v>
       </c>
       <c r="L10">
-        <v>12.03990460480387</v>
+        <v>7.332561736539615</v>
       </c>
       <c r="M10">
-        <v>17.28635667980888</v>
+        <v>11.53668034347953</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>37.23041709586622</v>
+        <v>26.17104810997541</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.6964967128055</v>
+        <v>16.26116370455602</v>
       </c>
       <c r="C11">
-        <v>8.490763792478621</v>
+        <v>7.29174154729815</v>
       </c>
       <c r="D11">
-        <v>14.1576311041609</v>
+        <v>10.3490673745758</v>
       </c>
       <c r="E11">
-        <v>14.69092654679158</v>
+        <v>9.07987862536223</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.743766344567387</v>
+        <v>2.132993387669485</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.866018547386094</v>
+        <v>5.310689370843276</v>
       </c>
       <c r="K11">
-        <v>12.29525094950548</v>
+        <v>12.45229878302555</v>
       </c>
       <c r="L11">
-        <v>12.03465193791764</v>
+        <v>7.389906428425125</v>
       </c>
       <c r="M11">
-        <v>17.29793638005568</v>
+        <v>11.74065314060973</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>37.20730356586306</v>
+        <v>26.30088760673476</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.73536359814935</v>
+        <v>16.4493988205515</v>
       </c>
       <c r="C12">
-        <v>8.495506741542584</v>
+        <v>7.302525050339928</v>
       </c>
       <c r="D12">
-        <v>14.16142321269421</v>
+        <v>10.40914329464658</v>
       </c>
       <c r="E12">
-        <v>14.68620443303198</v>
+        <v>9.086302039394162</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.743204094540521</v>
+        <v>2.13128516536074</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.864486828885003</v>
+        <v>5.305360961816275</v>
       </c>
       <c r="K12">
-        <v>12.32221618671912</v>
+        <v>12.605654840227</v>
       </c>
       <c r="L12">
-        <v>12.03286893148851</v>
+        <v>7.412021886398572</v>
       </c>
       <c r="M12">
-        <v>17.3026846078003</v>
+        <v>11.81788137453072</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>37.19938787448375</v>
+        <v>26.35278140378458</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.72697889051903</v>
+        <v>16.40898366794455</v>
       </c>
       <c r="C13">
-        <v>8.494487195006972</v>
+        <v>7.300202694559978</v>
       </c>
       <c r="D13">
-        <v>14.16059158374442</v>
+        <v>10.39618932628903</v>
       </c>
       <c r="E13">
-        <v>14.68721123862645</v>
+        <v>9.084891893659199</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.743324703142401</v>
+        <v>2.131652532239829</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.864815433574641</v>
+        <v>5.306506719548679</v>
       </c>
       <c r="K13">
-        <v>12.31639854980432</v>
+        <v>12.5727602557844</v>
       </c>
       <c r="L13">
-        <v>12.03324378011297</v>
+        <v>7.407241116759556</v>
       </c>
       <c r="M13">
-        <v>17.30164588756146</v>
+        <v>11.8012501740204</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>37.20105543891387</v>
+        <v>26.34148208105721</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.6996879488124</v>
+        <v>16.27670604124308</v>
       </c>
       <c r="C14">
-        <v>8.491154867993147</v>
+        <v>7.292628748715374</v>
       </c>
       <c r="D14">
-        <v>14.15793635179841</v>
+        <v>10.3540028131476</v>
       </c>
       <c r="E14">
-        <v>14.69053346488406</v>
+        <v>9.080395057444855</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.743719870639559</v>
+        <v>2.132852611008683</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.865891955764086</v>
+        <v>5.310250179877436</v>
       </c>
       <c r="K14">
-        <v>12.29746477362401</v>
+        <v>12.46497564328954</v>
       </c>
       <c r="L14">
-        <v>12.03450112303371</v>
+        <v>7.391717855679397</v>
       </c>
       <c r="M14">
-        <v>17.29831975791318</v>
+        <v>11.74700726441342</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>37.20663556439496</v>
+        <v>26.30510164966937</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.68301305737012</v>
+        <v>16.19531776570594</v>
       </c>
       <c r="C15">
-        <v>8.489108069488704</v>
+        <v>7.287989216952218</v>
       </c>
       <c r="D15">
-        <v>14.15635370389302</v>
+        <v>10.32820832937622</v>
       </c>
       <c r="E15">
-        <v>14.69259825880539</v>
+        <v>9.077718618040308</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.743963334435874</v>
+        <v>2.133589263142452</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.866555101959777</v>
+        <v>5.312548502071889</v>
       </c>
       <c r="K15">
-        <v>12.28589748046531</v>
+        <v>12.39856320054169</v>
       </c>
       <c r="L15">
-        <v>12.03529809705299</v>
+        <v>7.382261550965332</v>
       </c>
       <c r="M15">
-        <v>17.29632961832813</v>
+        <v>11.71377895009591</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>37.21016254203806</v>
+        <v>26.28317600810913</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.58811644068956</v>
+        <v>15.72335807693929</v>
       </c>
       <c r="C16">
-        <v>8.477292344942351</v>
+        <v>7.261394286708453</v>
       </c>
       <c r="D16">
-        <v>14.14795659057586</v>
+        <v>10.18111602468772</v>
       </c>
       <c r="E16">
-        <v>14.70488839508759</v>
+        <v>9.063562591924974</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.745380214653236</v>
+        <v>2.137835599358999</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.870412828753519</v>
+        <v>5.325803050907494</v>
       </c>
       <c r="K16">
-        <v>12.22008818206087</v>
+        <v>12.01195427417817</v>
       </c>
       <c r="L16">
-        <v>12.04027675198042</v>
+        <v>7.328870113457879</v>
       </c>
       <c r="M16">
-        <v>17.2856509219432</v>
+        <v>11.52335124994545</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>37.23204472888371</v>
+        <v>26.16293814927117</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.53051449463373</v>
+        <v>15.42890533714334</v>
       </c>
       <c r="C17">
-        <v>8.469967033769226</v>
+        <v>7.245068712984668</v>
       </c>
       <c r="D17">
-        <v>14.14340702009668</v>
+        <v>10.09155048972233</v>
       </c>
       <c r="E17">
-        <v>14.7128367368876</v>
+        <v>9.055917593272559</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.746268821737564</v>
+        <v>2.14046366863932</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.872830839294739</v>
+        <v>5.334011053374111</v>
       </c>
       <c r="K17">
-        <v>12.1801596845923</v>
+        <v>11.76937454015142</v>
       </c>
       <c r="L17">
-        <v>12.04369875025317</v>
+        <v>7.296828669244933</v>
       </c>
       <c r="M17">
-        <v>17.27975022031083</v>
+        <v>11.40656206982608</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>37.24695928901002</v>
+        <v>26.09391124701333</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.49761878679212</v>
+        <v>15.25775283257091</v>
       </c>
       <c r="C18">
-        <v>8.465725625250347</v>
+        <v>7.23567347145553</v>
       </c>
       <c r="D18">
-        <v>14.14101206459753</v>
+        <v>10.04029093896624</v>
       </c>
       <c r="E18">
-        <v>14.71755877403646</v>
+        <v>9.051896404789614</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.746787071115059</v>
+        <v>2.141984085307139</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.874240554742896</v>
+        <v>5.338761064727042</v>
       </c>
       <c r="K18">
-        <v>12.15736337988915</v>
+        <v>11.62785020593696</v>
       </c>
       <c r="L18">
-        <v>12.04580235456199</v>
+        <v>7.278660992496675</v>
       </c>
       <c r="M18">
-        <v>17.27659626044198</v>
+        <v>11.33941662833128</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>37.25608546556867</v>
+        <v>26.05591277420522</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.48652221505734</v>
+        <v>15.19949779837401</v>
       </c>
       <c r="C19">
-        <v>8.464284745352762</v>
+        <v>7.23249138727818</v>
       </c>
       <c r="D19">
-        <v>14.14023933674764</v>
+        <v>10.02298027783646</v>
       </c>
       <c r="E19">
-        <v>14.71918341342428</v>
+        <v>9.050598924294576</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.746963770487</v>
+        <v>2.142500418584901</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.874721117183274</v>
+        <v>5.340374387123915</v>
       </c>
       <c r="K19">
-        <v>12.14967467538232</v>
+        <v>11.5795881374134</v>
       </c>
       <c r="L19">
-        <v>12.04653786702656</v>
+        <v>7.272554668318215</v>
       </c>
       <c r="M19">
-        <v>17.27556968827662</v>
+        <v>11.31668890859151</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>37.25926949537555</v>
+        <v>26.04333638233624</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.53662217496217</v>
+        <v>15.46043613524994</v>
       </c>
       <c r="C20">
-        <v>8.470749734894541</v>
+        <v>7.246807107040137</v>
       </c>
       <c r="D20">
-        <v>14.1438683852849</v>
+        <v>10.10105860320991</v>
       </c>
       <c r="E20">
-        <v>14.71197506387397</v>
+        <v>9.05669236815398</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.746173488804481</v>
+        <v>2.140183000768971</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.872571478725037</v>
+        <v>5.333134314804072</v>
       </c>
       <c r="K20">
-        <v>12.18439274498462</v>
+        <v>11.79540419143028</v>
       </c>
       <c r="L20">
-        <v>12.04332046801802</v>
+        <v>7.300212446695771</v>
       </c>
       <c r="M20">
-        <v>17.28035354582008</v>
+        <v>11.41899190750602</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>37.24531492037895</v>
+        <v>26.10108210978191</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.70769534572778</v>
+        <v>16.31563519142183</v>
       </c>
       <c r="C21">
-        <v>8.492134831753113</v>
+        <v>7.294853448123013</v>
       </c>
       <c r="D21">
-        <v>14.1587071427568</v>
+        <v>10.36638448237085</v>
       </c>
       <c r="E21">
-        <v>14.68955142989536</v>
+        <v>9.081699597836494</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.743603506143796</v>
+        <v>2.132499793772105</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.865574974827915</v>
+        <v>5.309149525562148</v>
       </c>
       <c r="K21">
-        <v>12.30301982782271</v>
+        <v>12.49671606247704</v>
       </c>
       <c r="L21">
-        <v>12.03412622392964</v>
+        <v>7.396266546671786</v>
       </c>
       <c r="M21">
-        <v>17.29928688988254</v>
+        <v>11.76294042325735</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>37.20497383297893</v>
+        <v>26.31571256634032</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.82138974069197</v>
+        <v>16.85828911672538</v>
       </c>
       <c r="C22">
-        <v>8.505858584296444</v>
+        <v>7.326238597618313</v>
       </c>
       <c r="D22">
-        <v>14.17036552914152</v>
+        <v>10.54187348342156</v>
       </c>
       <c r="E22">
-        <v>14.67623201313658</v>
+        <v>9.101518489028088</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.741987132557923</v>
+        <v>2.127549534375895</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.861170100033673</v>
+        <v>5.29371540087298</v>
       </c>
       <c r="K22">
-        <v>12.38191855317514</v>
+        <v>12.9375202358177</v>
       </c>
       <c r="L22">
-        <v>12.02931801782379</v>
+        <v>7.461376861789343</v>
       </c>
       <c r="M22">
-        <v>17.3137766316857</v>
+        <v>11.98764211619079</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.18348661308599</v>
+        <v>26.47193074684312</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.76054628511764</v>
+        <v>16.57016459235757</v>
       </c>
       <c r="C23">
-        <v>8.498557200223354</v>
+        <v>7.309487614300232</v>
       </c>
       <c r="D23">
-        <v>14.1639646233723</v>
+        <v>10.44803006767159</v>
       </c>
       <c r="E23">
-        <v>14.68321877663482</v>
+        <v>9.09061654250948</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.742844051526072</v>
+        <v>2.130185442947598</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.863505759816197</v>
+        <v>5.301931644559354</v>
       </c>
       <c r="K23">
-        <v>12.33969040462531</v>
+        <v>12.70384677232928</v>
       </c>
       <c r="L23">
-        <v>12.03177460893032</v>
+        <v>7.426412572171695</v>
       </c>
       <c r="M23">
-        <v>17.3058506636779</v>
+        <v>11.86773811699332</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>37.19450841756176</v>
+        <v>26.3870576393797</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.53386020379432</v>
+        <v>15.44618687484064</v>
       </c>
       <c r="C24">
-        <v>8.470395969107432</v>
+        <v>7.246021208848506</v>
       </c>
       <c r="D24">
-        <v>14.14365911461987</v>
+        <v>10.09675925749015</v>
       </c>
       <c r="E24">
-        <v>14.71236415140733</v>
+        <v>9.056340928825172</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.746216565839312</v>
+        <v>2.140309861028223</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.872688674672569</v>
+        <v>5.333530591192957</v>
       </c>
       <c r="K24">
-        <v>12.18247848117698</v>
+        <v>11.78364261153075</v>
       </c>
       <c r="L24">
-        <v>12.04349106495593</v>
+        <v>7.298681851725511</v>
       </c>
       <c r="M24">
-        <v>17.28008003943208</v>
+        <v>11.41337237948376</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>37.24605662120285</v>
+        <v>26.09783491969401</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.29845963476552</v>
+        <v>14.16571698896965</v>
       </c>
       <c r="C25">
-        <v>8.438947281974063</v>
+        <v>7.177350462118873</v>
       </c>
       <c r="D25">
-        <v>14.1302441161383</v>
+        <v>9.727790180390777</v>
       </c>
       <c r="E25">
-        <v>14.74955254631659</v>
+        <v>9.033673491459682</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.750127813870235</v>
+        <v>2.151571656727282</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.88331861475686</v>
+        <v>5.368732125519336</v>
       </c>
       <c r="K25">
-        <v>12.01945934986055</v>
+        <v>10.71451969187341</v>
       </c>
       <c r="L25">
-        <v>12.0613066077257</v>
+        <v>7.170907103207999</v>
       </c>
       <c r="M25">
-        <v>17.26146686978313</v>
+        <v>10.92461472151043</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>37.3225973942121</v>
+        <v>25.85055489544676</v>
       </c>
     </row>
   </sheetData>
